--- a/ipams wireframes.xlsx
+++ b/ipams wireframes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830"/>
+    <workbookView windowWidth="12105" windowHeight="5040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginOrSignup" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Profile" sheetId="5" r:id="rId3"/>
     <sheet name="ViewRecord" sheetId="4" r:id="rId4"/>
     <sheet name="AddRecord" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="225">
   <si>
     <t>LEGEND:</t>
   </si>
@@ -675,6 +676,24 @@
   </si>
   <si>
     <t>ADD COLLABORATION</t>
+  </si>
+  <si>
+    <t>types of uploads:</t>
+  </si>
+  <si>
+    <t>proposal thesis 1</t>
+  </si>
+  <si>
+    <t>thesis 2</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>ITSO - comment status on the patent application</t>
   </si>
 </sst>
 </file>
@@ -682,10 +701,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -739,15 +758,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,11 +788,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,9 +813,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,7 +836,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,29 +874,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -856,14 +882,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,12 +940,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,7 +952,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,55 +1078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,61 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,43 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,45 +1403,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1456,8 +1430,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,6 +1451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1485,12 +1474,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1508,134 +1521,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,24 +2105,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2128,9 +2126,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2143,15 +2138,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2164,18 +2153,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2185,12 +2168,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2212,394 +2189,247 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2923,8 +2753,8 @@
   <sheetPr/>
   <dimension ref="B6:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3081,10 +2911,10 @@
       <c r="F22" s="8"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="297" t="s">
+      <c r="I22" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="297"/>
+      <c r="J22" s="247"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
@@ -3349,8 +3179,8 @@
   <sheetPr/>
   <dimension ref="B5:AB92"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3407,12 +3237,12 @@
       <c r="H11" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="8"/>
@@ -3424,12 +3254,12 @@
       <c r="H12" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="194"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="194"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="8"/>
@@ -3441,12 +3271,12 @@
       <c r="H13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="4"/>
@@ -3458,12 +3288,12 @@
       <c r="H14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="194"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" s="74" t="s">
@@ -3527,7 +3357,7 @@
       <c r="AA19" s="17"/>
     </row>
     <row r="20" ht="15.75" spans="5:27">
-      <c r="E20" s="255" t="s">
+      <c r="E20" s="223" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="55" t="s">
@@ -3536,13 +3366,13 @@
       <c r="G20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="157" t="s">
+      <c r="H20" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="171"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="172" t="s">
+      <c r="L20" s="164" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="17"/>
@@ -3576,21 +3406,21 @@
         <v>34</v>
       </c>
       <c r="P21" s="94"/>
-      <c r="Q21" s="294" t="s">
+      <c r="Q21" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="295"/>
-      <c r="S21" s="164"/>
+      <c r="R21" s="245"/>
+      <c r="S21" s="10"/>
       <c r="T21" s="17"/>
-      <c r="U21" s="296" t="s">
+      <c r="U21" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="297"/>
-      <c r="W21" s="297"/>
-      <c r="X21" s="297"/>
-      <c r="Y21" s="297"/>
-      <c r="Z21" s="297"/>
-      <c r="AA21" s="304"/>
+      <c r="V21" s="247"/>
+      <c r="W21" s="247"/>
+      <c r="X21" s="247"/>
+      <c r="Y21" s="247"/>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="254"/>
     </row>
     <row r="22" spans="5:27">
       <c r="E22" s="8"/>
@@ -3607,13 +3437,13 @@
         <v>37</v>
       </c>
       <c r="P22" s="7"/>
-      <c r="Q22" s="298" t="s">
+      <c r="Q22" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="299" t="s">
+      <c r="R22" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="164"/>
+      <c r="S22" s="10"/>
       <c r="T22" s="17"/>
       <c r="U22" s="8"/>
       <c r="V22" s="17"/>
@@ -3646,7 +3476,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="72"/>
-      <c r="S23" s="164"/>
+      <c r="S23" s="10"/>
       <c r="T23" s="17"/>
       <c r="U23" s="8"/>
       <c r="V23" s="17" t="s">
@@ -3678,7 +3508,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="71"/>
       <c r="R24" s="72"/>
-      <c r="S24" s="164"/>
+      <c r="S24" s="10"/>
       <c r="T24" s="17"/>
       <c r="U24" s="8"/>
       <c r="V24" s="17"/>
@@ -3690,20 +3520,20 @@
     </row>
     <row r="25" spans="5:27">
       <c r="E25" s="8"/>
-      <c r="F25" s="256" t="s">
+      <c r="F25" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="257"/>
-      <c r="H25" s="258" t="s">
+      <c r="G25" s="182"/>
+      <c r="H25" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="258" t="s">
+      <c r="I25" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="256" t="s">
+      <c r="J25" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="257" t="s">
+      <c r="K25" s="182" t="s">
         <v>47</v>
       </c>
       <c r="L25" s="10"/>
@@ -3713,9 +3543,9 @@
         <v>49</v>
       </c>
       <c r="P25" s="9"/>
-      <c r="Q25" s="300"/>
-      <c r="R25" s="301"/>
-      <c r="S25" s="164"/>
+      <c r="Q25" s="250"/>
+      <c r="R25" s="251"/>
+      <c r="S25" s="10"/>
       <c r="T25" s="17"/>
       <c r="U25" s="8"/>
       <c r="V25" s="17"/>
@@ -3727,14 +3557,14 @@
     </row>
     <row r="26" spans="5:27">
       <c r="E26" s="8"/>
-      <c r="F26" s="259" t="s">
+      <c r="F26" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="260"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="261"/>
-      <c r="K26" s="283"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="237"/>
       <c r="L26" s="10"/>
       <c r="M26" s="17"/>
       <c r="N26" s="8"/>
@@ -3742,9 +3572,9 @@
         <v>51</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="300"/>
-      <c r="R26" s="301"/>
-      <c r="S26" s="164"/>
+      <c r="Q26" s="250"/>
+      <c r="R26" s="251"/>
+      <c r="S26" s="10"/>
       <c r="T26" s="17"/>
       <c r="U26" s="8"/>
       <c r="V26" s="17"/>
@@ -3760,12 +3590,12 @@
     </row>
     <row r="27" spans="5:27">
       <c r="E27" s="8"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="283"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="237"/>
       <c r="L27" s="10"/>
       <c r="M27" s="17"/>
       <c r="N27" s="8"/>
@@ -3773,9 +3603,9 @@
         <v>54</v>
       </c>
       <c r="P27" s="9"/>
-      <c r="Q27" s="300"/>
-      <c r="R27" s="301"/>
-      <c r="S27" s="164"/>
+      <c r="Q27" s="250"/>
+      <c r="R27" s="251"/>
+      <c r="S27" s="10"/>
       <c r="T27" s="17"/>
       <c r="U27" s="4"/>
       <c r="V27" s="31"/>
@@ -3787,12 +3617,12 @@
     </row>
     <row r="28" spans="5:28">
       <c r="E28" s="8"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="261"/>
-      <c r="K28" s="283"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="227"/>
+      <c r="K28" s="237"/>
       <c r="L28" s="10"/>
       <c r="M28" s="17"/>
       <c r="N28" s="8"/>
@@ -3800,13 +3630,13 @@
         <v>55</v>
       </c>
       <c r="P28" s="9"/>
-      <c r="Q28" s="302" t="s">
+      <c r="Q28" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="303" t="s">
+      <c r="R28" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="S28" s="164"/>
+      <c r="S28" s="10"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
@@ -3819,12 +3649,12 @@
     </row>
     <row r="29" spans="5:28">
       <c r="E29" s="8"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="263"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="283"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="227"/>
+      <c r="J29" s="227"/>
+      <c r="K29" s="237"/>
       <c r="L29" s="10"/>
       <c r="M29" s="17"/>
       <c r="N29" s="8"/>
@@ -3832,9 +3662,9 @@
         <v>58</v>
       </c>
       <c r="P29" s="31"/>
-      <c r="Q29" s="300"/>
-      <c r="R29" s="301"/>
-      <c r="S29" s="164"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="251"/>
+      <c r="S29" s="10"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
@@ -3847,12 +3677,12 @@
     </row>
     <row r="30" spans="5:28">
       <c r="E30" s="8"/>
-      <c r="F30" s="264"/>
-      <c r="G30" s="265"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="284"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="238"/>
       <c r="L30" s="10"/>
       <c r="M30" s="17"/>
       <c r="N30" s="8"/>
@@ -3931,12 +3761,12 @@
       <c r="E33" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="N33" s="285"/>
-      <c r="O33" s="285"/>
-      <c r="P33" s="285"/>
-      <c r="Q33" s="285"/>
-      <c r="R33" s="285"/>
-      <c r="S33" s="285"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
@@ -3972,19 +3802,19 @@
       <c r="E39" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="267" t="s">
+      <c r="F39" s="229" t="s">
         <v>30</v>
       </c>
       <c r="G39" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="157" t="s">
+      <c r="H39" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="171"/>
+      <c r="I39" s="55"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="172" t="s">
+      <c r="L39" s="164" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4000,112 +3830,112 @@
     </row>
     <row r="41" spans="5:12">
       <c r="E41" s="8"/>
-      <c r="F41" s="153"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="153"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="5:12">
-      <c r="E42" s="268" t="s">
+      <c r="E42" s="230" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="269"/>
-      <c r="G42" s="270"/>
-      <c r="H42" s="271" t="s">
+      <c r="F42" s="231"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="286"/>
-      <c r="K42" s="287"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="145"/>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="5:12">
-      <c r="E43" s="272" t="s">
+      <c r="E43" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
-      <c r="H43" s="275"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="146"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
-      <c r="K43" s="288"/>
+      <c r="K43" s="147"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="5:12">
-      <c r="E44" s="268" t="s">
+      <c r="E44" s="230" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="276"/>
-      <c r="G44" s="276"/>
-      <c r="H44" s="275"/>
+      <c r="F44" s="233"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="146"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
-      <c r="K44" s="288"/>
+      <c r="K44" s="147"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="5:12">
-      <c r="E45" s="268" t="s">
+      <c r="E45" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="277"/>
-      <c r="G45" s="278"/>
-      <c r="H45" s="275"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="235"/>
+      <c r="H45" s="146"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="288"/>
+      <c r="K45" s="147"/>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="5:12">
       <c r="E46" s="8"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="279"/>
-      <c r="H46" s="275"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="146"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="288"/>
+      <c r="K46" s="147"/>
       <c r="L46" s="10"/>
     </row>
     <row r="47" spans="5:12">
       <c r="E47" s="8"/>
-      <c r="F47" s="279"/>
-      <c r="G47" s="279"/>
-      <c r="H47" s="275"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="146"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
-      <c r="K47" s="288"/>
+      <c r="K47" s="147"/>
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="5:12">
       <c r="E48" s="8"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="280"/>
-      <c r="I48" s="289"/>
-      <c r="J48" s="289"/>
-      <c r="K48" s="290"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="240"/>
+      <c r="J48" s="240"/>
+      <c r="K48" s="150"/>
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="5:12">
       <c r="E49" s="8"/>
-      <c r="F49" s="279"/>
-      <c r="G49" s="281"/>
-      <c r="H49" s="279"/>
-      <c r="I49" s="279"/>
-      <c r="J49" s="279"/>
-      <c r="K49" s="281"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="217"/>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="5:12">
       <c r="E50" s="8"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="5:12">
@@ -4119,7 +3949,7 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="208"/>
+      <c r="E52" s="161"/>
     </row>
     <row r="56" spans="5:12">
       <c r="E56" s="17"/>
@@ -4150,13 +3980,13 @@
       <c r="F58" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="255" t="s">
+      <c r="G58" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="157" t="s">
+      <c r="H58" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I58" s="171"/>
+      <c r="I58" s="55"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="3"/>
@@ -4194,13 +4024,13 @@
     </row>
     <row r="62" spans="5:12">
       <c r="E62" s="8"/>
-      <c r="F62" s="279" t="s">
+      <c r="F62" s="166" t="s">
         <v>68</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
-      <c r="J62" s="291" t="s">
+      <c r="J62" s="241" t="s">
         <v>31</v>
       </c>
       <c r="K62" s="23" t="s">
@@ -4210,12 +4040,12 @@
     </row>
     <row r="63" spans="5:12">
       <c r="E63" s="8"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="282"/>
+      <c r="F63" s="236"/>
+      <c r="G63" s="236"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
-      <c r="J63" s="282"/>
-      <c r="K63" s="282"/>
+      <c r="J63" s="236"/>
+      <c r="K63" s="236"/>
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="5:12">
@@ -4224,10 +4054,10 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
-      <c r="J64" s="292" t="s">
+      <c r="J64" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="K64" s="293"/>
+      <c r="K64" s="243"/>
       <c r="L64" s="10"/>
     </row>
     <row r="65" spans="5:12">
@@ -4252,12 +4082,12 @@
     </row>
     <row r="67" spans="5:12">
       <c r="E67" s="8"/>
-      <c r="F67" s="282"/>
-      <c r="G67" s="282"/>
+      <c r="F67" s="236"/>
+      <c r="G67" s="236"/>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
-      <c r="J67" s="282"/>
-      <c r="K67" s="282"/>
+      <c r="J67" s="236"/>
+      <c r="K67" s="236"/>
       <c r="L67" s="10"/>
     </row>
     <row r="68" spans="5:12">
@@ -4302,7 +4132,7 @@
       <c r="K75" s="18"/>
       <c r="L75" s="17"/>
     </row>
-    <row r="76" spans="5:12">
+    <row r="76" ht="15.75" spans="5:12">
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -4319,17 +4149,17 @@
       <c r="F77" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="305" t="s">
+      <c r="G77" s="255" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="306" t="s">
+      <c r="H77" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="I77" s="314"/>
+      <c r="I77" s="259"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="315"/>
-      <c r="M77" s="316" t="s">
+      <c r="L77" s="7"/>
+      <c r="M77" s="260" t="s">
         <v>72</v>
       </c>
       <c r="N77" s="148"/>
@@ -4343,199 +4173,199 @@
       <c r="J78" s="9"/>
       <c r="K78" s="17"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="317"/>
+      <c r="M78" s="10"/>
     </row>
     <row r="79" spans="5:13">
       <c r="E79" s="8"/>
-      <c r="F79" s="153"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="153"/>
+      <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="317"/>
+      <c r="M79" s="10"/>
     </row>
     <row r="80" spans="5:13">
-      <c r="E80" s="307"/>
+      <c r="E80" s="257"/>
       <c r="F80" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="308"/>
-      <c r="H80" s="308"/>
-      <c r="I80" s="308"/>
-      <c r="J80" s="308"/>
-      <c r="K80" s="318"/>
+      <c r="G80" s="148"/>
+      <c r="H80" s="148"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="148"/>
+      <c r="K80" s="148"/>
       <c r="L80" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="M80" s="317"/>
+      <c r="M80" s="10"/>
     </row>
     <row r="81" spans="5:13">
-      <c r="E81" s="309"/>
-      <c r="F81" s="310" t="s">
+      <c r="E81" s="257"/>
+      <c r="F81" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="G81" s="173" t="s">
+      <c r="G81" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="H81" s="173"/>
-      <c r="I81" s="173" t="s">
+      <c r="H81" s="165"/>
+      <c r="I81" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="J81" s="173"/>
-      <c r="K81" s="319" t="s">
+      <c r="J81" s="165"/>
+      <c r="K81" s="148" t="s">
         <v>15</v>
       </c>
       <c r="L81" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M81" s="317"/>
+      <c r="M81" s="10"/>
     </row>
     <row r="82" spans="5:14">
-      <c r="E82" s="309"/>
-      <c r="F82" s="311">
+      <c r="E82" s="257"/>
+      <c r="F82" s="221">
         <v>1</v>
       </c>
-      <c r="G82" s="312" t="s">
+      <c r="G82" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="313"/>
-      <c r="I82" s="312" t="s">
+      <c r="H82" s="245"/>
+      <c r="I82" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="J82" s="313"/>
-      <c r="K82" s="320" t="s">
+      <c r="J82" s="245"/>
+      <c r="K82" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="L82" s="316" t="s">
+      <c r="L82" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="M82" s="317"/>
+      <c r="M82" s="10"/>
       <c r="N82" s="74" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="5:14">
-      <c r="E83" s="309"/>
-      <c r="F83" s="311">
+      <c r="E83" s="257"/>
+      <c r="F83" s="221">
         <v>2</v>
       </c>
-      <c r="G83" s="312" t="s">
+      <c r="G83" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="H83" s="313"/>
-      <c r="I83" s="312" t="s">
+      <c r="H83" s="245"/>
+      <c r="I83" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="J83" s="313"/>
-      <c r="K83" s="320" t="s">
+      <c r="J83" s="245"/>
+      <c r="K83" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="L83" s="316" t="s">
+      <c r="L83" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="M83" s="317"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="74" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="5:14">
-      <c r="E84" s="309"/>
-      <c r="F84" s="311">
+      <c r="E84" s="257"/>
+      <c r="F84" s="221">
         <v>3</v>
       </c>
-      <c r="G84" s="312" t="s">
+      <c r="G84" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="H84" s="313"/>
-      <c r="I84" s="312" t="s">
+      <c r="H84" s="245"/>
+      <c r="I84" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="J84" s="313"/>
-      <c r="K84" s="320" t="s">
+      <c r="J84" s="245"/>
+      <c r="K84" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="L84" s="316" t="s">
+      <c r="L84" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="M84" s="317"/>
+      <c r="M84" s="10"/>
       <c r="N84" s="74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="85" spans="5:14">
-      <c r="E85" s="309"/>
-      <c r="F85" s="311">
+      <c r="E85" s="257"/>
+      <c r="F85" s="221">
         <v>4</v>
       </c>
-      <c r="G85" s="312" t="s">
+      <c r="G85" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="313"/>
-      <c r="I85" s="312" t="s">
+      <c r="H85" s="245"/>
+      <c r="I85" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="J85" s="313"/>
-      <c r="K85" s="320" t="s">
+      <c r="J85" s="245"/>
+      <c r="K85" s="169" t="s">
         <v>94</v>
       </c>
-      <c r="L85" s="316" t="s">
+      <c r="L85" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="M85" s="317"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="74" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="5:14">
-      <c r="E86" s="309"/>
-      <c r="F86" s="311">
+      <c r="E86" s="257"/>
+      <c r="F86" s="221">
         <v>5</v>
       </c>
-      <c r="G86" s="312" t="s">
+      <c r="G86" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="H86" s="313"/>
-      <c r="I86" s="312" t="s">
+      <c r="H86" s="245"/>
+      <c r="I86" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="J86" s="313"/>
-      <c r="K86" s="320" t="s">
+      <c r="J86" s="245"/>
+      <c r="K86" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="L86" s="316" t="s">
+      <c r="L86" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="M86" s="317"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="74" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="87" spans="5:14">
       <c r="E87" s="8"/>
-      <c r="F87" s="279"/>
-      <c r="G87" s="281"/>
-      <c r="H87" s="279"/>
-      <c r="I87" s="279"/>
-      <c r="J87" s="279"/>
-      <c r="K87" s="281"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="217"/>
+      <c r="H87" s="166"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="166"/>
+      <c r="K87" s="217"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="317"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="88" spans="5:13">
       <c r="E88" s="8"/>
-      <c r="F88" s="153"/>
-      <c r="G88" s="153"/>
-      <c r="H88" s="153"/>
-      <c r="I88" s="153"/>
-      <c r="J88" s="153"/>
-      <c r="K88" s="153"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="317"/>
+      <c r="M88" s="10"/>
     </row>
     <row r="89" spans="5:13">
       <c r="E89" s="4"/>
@@ -4546,37 +4376,37 @@
       <c r="J89" s="31"/>
       <c r="K89" s="31"/>
       <c r="L89" s="31"/>
-      <c r="M89" s="321"/>
+      <c r="M89" s="6"/>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="194"/>
-      <c r="G90" s="194"/>
-      <c r="H90" s="194"/>
-      <c r="I90" s="194"/>
-      <c r="J90" s="194"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="74"/>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F91" s="194"/>
-      <c r="G91" s="194"/>
-      <c r="H91" s="194"/>
-      <c r="I91" s="194"/>
-      <c r="J91" s="194"/>
+      <c r="F91" s="74"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="194"/>
-      <c r="G92" s="194"/>
-      <c r="H92" s="194"/>
-      <c r="I92" s="194"/>
-      <c r="J92" s="194"/>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -4640,8 +4470,8 @@
   <sheetPr/>
   <dimension ref="B5:Z150"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4795,7 +4625,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="164"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="8"/>
@@ -4804,38 +4634,38 @@
       </c>
       <c r="G24" s="145"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="165" t="s">
+      <c r="I24" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="164"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="8"/>
       <c r="F25" s="146"/>
       <c r="G25" s="147"/>
       <c r="H25" s="148"/>
-      <c r="I25" s="166" t="s">
+      <c r="I25" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="J25" s="164"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="8"/>
       <c r="F26" s="146"/>
       <c r="G26" s="147"/>
       <c r="H26" s="148"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="164"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="8"/>
       <c r="F27" s="146"/>
       <c r="G27" s="147"/>
       <c r="H27" s="148"/>
-      <c r="I27" s="166" t="s">
+      <c r="I27" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="164"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="8"/>
@@ -4843,7 +4673,7 @@
       <c r="G28" s="150"/>
       <c r="H28" s="148"/>
       <c r="I28" s="148"/>
-      <c r="J28" s="164"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="8"/>
@@ -4851,7 +4681,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="164"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="8"/>
@@ -4859,9 +4689,9 @@
         <v>114</v>
       </c>
       <c r="G30" s="151"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="164"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="8"/>
@@ -4869,28 +4699,28 @@
         <v>115</v>
       </c>
       <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="164"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="8"/>
-      <c r="F32" s="153" t="s">
+      <c r="F32" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="151"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="168"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="162"/>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" s="8"/>
-      <c r="F33" s="153" t="s">
+      <c r="F33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="G33" s="151"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="162"/>
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="5:10">
@@ -4933,7 +4763,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="164"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" s="8"/>
@@ -4942,44 +4772,44 @@
       </c>
       <c r="G41" s="145"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="164"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" s="8"/>
       <c r="F42" s="146"/>
       <c r="G42" s="147"/>
       <c r="H42" s="148"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="164"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" s="8"/>
       <c r="F43" s="146"/>
       <c r="G43" s="147"/>
       <c r="H43" s="148"/>
-      <c r="I43" s="167" t="s">
+      <c r="I43" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="J43" s="164"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" s="8"/>
       <c r="F44" s="146"/>
       <c r="G44" s="147"/>
       <c r="H44" s="148"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="164"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" s="8"/>
       <c r="F45" s="149"/>
       <c r="G45" s="150"/>
-      <c r="H45" s="154" t="s">
+      <c r="H45" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="154"/>
-      <c r="J45" s="164"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" s="8"/>
@@ -4987,46 +4817,46 @@
       <c r="G46" s="9"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="164"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="155"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="164"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="155"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="164"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" s="8"/>
-      <c r="F49" s="153" t="s">
+      <c r="F49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="155"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="169"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" s="8"/>
-      <c r="F50" s="153" t="s">
+      <c r="F50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G50" s="155"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="170"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="163"/>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="5:10">
@@ -5101,13 +4931,13 @@
       <c r="G56" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="157" t="s">
+      <c r="H56" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="171"/>
+      <c r="I56" s="55"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="172" t="s">
+      <c r="L56" s="164" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="1"/>
@@ -5139,7 +4969,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
-      <c r="S57" s="164"/>
+      <c r="S57" s="10"/>
       <c r="U57" s="8"/>
       <c r="V57" s="9" t="s">
         <v>125</v>
@@ -5147,7 +4977,7 @@
       <c r="W57" s="9"/>
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
-      <c r="Z57" s="164"/>
+      <c r="Z57" s="10"/>
     </row>
     <row r="58" spans="5:26">
       <c r="E58" s="8"/>
@@ -5156,20 +4986,20 @@
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="173"/>
+      <c r="K58" s="165"/>
       <c r="L58" s="10"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="174"/>
+      <c r="O58" s="166"/>
       <c r="P58" s="151"/>
-      <c r="Q58" s="152"/>
-      <c r="R58" s="168"/>
-      <c r="S58" s="164"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="162"/>
+      <c r="S58" s="10"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="174"/>
+      <c r="V58" s="166"/>
       <c r="W58" s="151"/>
-      <c r="X58" s="152"/>
-      <c r="Y58" s="168"/>
-      <c r="Z58" s="164"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="162"/>
+      <c r="Z58" s="10"/>
     </row>
     <row r="59" spans="5:26">
       <c r="E59" s="8"/>
@@ -5181,230 +5011,230 @@
       <c r="K59" s="17"/>
       <c r="L59" s="10"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="175" t="s">
+      <c r="O59" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="P59" s="176"/>
+      <c r="P59" s="166"/>
       <c r="Q59" s="148"/>
-      <c r="R59" s="166"/>
-      <c r="S59" s="164"/>
+      <c r="R59" s="160"/>
+      <c r="S59" s="10"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="175" t="s">
+      <c r="V59" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="W59" s="176"/>
+      <c r="W59" s="166"/>
       <c r="X59" s="148"/>
-      <c r="Y59" s="166"/>
-      <c r="Z59" s="164"/>
+      <c r="Y59" s="160"/>
+      <c r="Z59" s="10"/>
     </row>
     <row r="60" spans="5:26">
       <c r="E60" s="8"/>
-      <c r="F60" s="158" t="s">
+      <c r="F60" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="158"/>
-      <c r="H60" s="159" t="s">
+      <c r="G60" s="153"/>
+      <c r="H60" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="I60" s="177" t="s">
+      <c r="I60" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="J60" s="178" t="s">
+      <c r="J60" s="169" t="s">
         <v>129</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="10"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="179"/>
+      <c r="O60" s="166"/>
       <c r="P60" s="151"/>
-      <c r="Q60" s="152"/>
-      <c r="R60" s="168"/>
-      <c r="S60" s="164"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="162"/>
+      <c r="S60" s="10"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="179"/>
+      <c r="V60" s="166"/>
       <c r="W60" s="151"/>
-      <c r="X60" s="152"/>
-      <c r="Y60" s="168"/>
-      <c r="Z60" s="164"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="162"/>
+      <c r="Z60" s="10"/>
     </row>
     <row r="61" spans="5:26">
       <c r="E61" s="8"/>
-      <c r="F61" s="158"/>
-      <c r="G61" s="158"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
       <c r="H61" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="180" t="s">
+      <c r="I61" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="J61" s="178"/>
+      <c r="J61" s="169"/>
       <c r="K61" s="23"/>
       <c r="L61" s="10"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="175" t="s">
+      <c r="O61" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="P61" s="176"/>
+      <c r="P61" s="166"/>
       <c r="Q61" s="148"/>
-      <c r="R61" s="166"/>
-      <c r="S61" s="164"/>
+      <c r="R61" s="160"/>
+      <c r="S61" s="10"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="175" t="s">
+      <c r="V61" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="W61" s="176"/>
+      <c r="W61" s="166"/>
       <c r="X61" s="148"/>
-      <c r="Y61" s="166"/>
-      <c r="Z61" s="164"/>
+      <c r="Y61" s="160"/>
+      <c r="Z61" s="10"/>
     </row>
     <row r="62" spans="5:26">
       <c r="E62" s="8"/>
-      <c r="F62" s="160" t="s">
+      <c r="F62" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="160"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
-      <c r="J62" s="181" t="s">
+      <c r="G62" s="155"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="K62" s="182" t="s">
+      <c r="K62" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="L62" s="183" t="s">
+      <c r="L62" s="172" t="s">
         <v>136</v>
       </c>
       <c r="N62" s="8"/>
-      <c r="O62" s="184"/>
-      <c r="P62" s="185"/>
-      <c r="Q62" s="190"/>
-      <c r="R62" s="191"/>
-      <c r="S62" s="164"/>
+      <c r="O62" s="166"/>
+      <c r="P62" s="173"/>
+      <c r="Q62" s="178"/>
+      <c r="R62" s="179"/>
+      <c r="S62" s="10"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="184"/>
-      <c r="W62" s="185"/>
-      <c r="X62" s="190"/>
-      <c r="Y62" s="191"/>
-      <c r="Z62" s="164"/>
+      <c r="V62" s="166"/>
+      <c r="W62" s="173"/>
+      <c r="X62" s="178"/>
+      <c r="Y62" s="179"/>
+      <c r="Z62" s="10"/>
     </row>
     <row r="63" spans="5:26">
       <c r="E63" s="8"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="163" t="s">
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="I63" s="186"/>
-      <c r="J63" s="187" t="s">
+      <c r="I63" s="174"/>
+      <c r="J63" s="175" t="s">
         <v>138</v>
       </c>
-      <c r="K63" s="182" t="s">
+      <c r="K63" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="L63" s="183" t="s">
+      <c r="L63" s="172" t="s">
         <v>136</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="188"/>
-      <c r="Q63" s="192"/>
-      <c r="R63" s="193"/>
-      <c r="S63" s="164"/>
+      <c r="P63" s="176"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="180"/>
+      <c r="S63" s="10"/>
       <c r="U63" s="8"/>
       <c r="V63" s="9"/>
-      <c r="W63" s="188"/>
-      <c r="X63" s="192"/>
-      <c r="Y63" s="193"/>
-      <c r="Z63" s="164"/>
+      <c r="W63" s="176"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="180"/>
+      <c r="Z63" s="10"/>
     </row>
     <row r="64" spans="5:26">
       <c r="E64" s="8"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="163" t="s">
+      <c r="F64" s="157"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="I64" s="163" t="s">
+      <c r="I64" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="J64" s="189" t="s">
+      <c r="J64" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="K64" s="182" t="s">
+      <c r="K64" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="L64" s="183" t="s">
+      <c r="L64" s="172" t="s">
         <v>136</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="188"/>
-      <c r="Q64" s="192"/>
-      <c r="R64" s="193"/>
-      <c r="S64" s="164"/>
+      <c r="P64" s="176"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="180"/>
+      <c r="S64" s="10"/>
       <c r="U64" s="8"/>
       <c r="V64" s="9"/>
-      <c r="W64" s="188"/>
-      <c r="X64" s="192"/>
-      <c r="Y64" s="193"/>
-      <c r="Z64" s="164"/>
+      <c r="W64" s="176"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="180"/>
+      <c r="Z64" s="10"/>
     </row>
     <row r="65" spans="5:26">
       <c r="E65" s="8"/>
-      <c r="F65" s="162"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="163"/>
-      <c r="I65" s="186"/>
-      <c r="J65" s="204" t="s">
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="K65" s="182" t="s">
+      <c r="K65" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="L65" s="183" t="s">
+      <c r="L65" s="172" t="s">
         <v>136</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="188"/>
-      <c r="Q65" s="192"/>
-      <c r="R65" s="193"/>
-      <c r="S65" s="164"/>
+      <c r="P65" s="176"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="180"/>
+      <c r="S65" s="10"/>
       <c r="U65" s="8"/>
       <c r="V65" s="9"/>
-      <c r="W65" s="188"/>
-      <c r="X65" s="192"/>
-      <c r="Y65" s="193"/>
-      <c r="Z65" s="164"/>
+      <c r="W65" s="176"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="180"/>
+      <c r="Z65" s="10"/>
     </row>
     <row r="66" spans="5:26">
       <c r="E66" s="8"/>
-      <c r="F66" s="162"/>
-      <c r="G66" s="162"/>
-      <c r="H66" s="186" t="s">
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
+      <c r="H66" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="186"/>
-      <c r="J66" s="204" t="s">
+      <c r="I66" s="174"/>
+      <c r="J66" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="K66" s="182" t="s">
+      <c r="K66" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="L66" s="183" t="s">
+      <c r="L66" s="172" t="s">
         <v>136</v>
       </c>
       <c r="N66" s="8"/>
-      <c r="O66" s="153"/>
-      <c r="P66" s="205"/>
-      <c r="Q66" s="225"/>
-      <c r="R66" s="226"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="189"/>
+      <c r="Q66" s="202"/>
+      <c r="R66" s="203"/>
       <c r="S66" s="10"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="153"/>
-      <c r="W66" s="205"/>
-      <c r="X66" s="225"/>
-      <c r="Y66" s="226"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="189"/>
+      <c r="X66" s="202"/>
+      <c r="Y66" s="203"/>
       <c r="Z66" s="10"/>
     </row>
     <row r="67" spans="5:26">
@@ -5417,16 +5247,16 @@
       <c r="K67" s="17"/>
       <c r="L67" s="10"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="153"/>
-      <c r="P67" s="206"/>
-      <c r="Q67" s="227"/>
-      <c r="R67" s="228"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
       <c r="S67" s="10"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="153"/>
-      <c r="W67" s="206"/>
-      <c r="X67" s="227"/>
-      <c r="Y67" s="228"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
       <c r="Z67" s="10"/>
     </row>
     <row r="68" spans="5:26">
@@ -5443,7 +5273,7 @@
       <c r="P68" s="31"/>
       <c r="Q68" s="31"/>
       <c r="R68" s="31"/>
-      <c r="S68" s="229" t="s">
+      <c r="S68" s="204" t="s">
         <v>141</v>
       </c>
       <c r="U68" s="4"/>
@@ -5451,21 +5281,21 @@
       <c r="W68" s="31"/>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
-      <c r="Z68" s="229" t="s">
+      <c r="Z68" s="204" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="69" spans="5:12">
-      <c r="E69" s="194" t="s">
+      <c r="E69" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="194"/>
-      <c r="G69" s="194"/>
-      <c r="H69" s="194"/>
-      <c r="I69" s="194"/>
-      <c r="J69" s="194"/>
-      <c r="K69" s="194"/>
-      <c r="L69" s="194"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="140" t="s">
@@ -5505,7 +5335,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
-      <c r="J77" s="164"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" s="8"/>
@@ -5514,50 +5344,50 @@
       </c>
       <c r="G78" s="145"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="166" t="s">
+      <c r="I78" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="J78" s="164"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" s="8"/>
       <c r="F79" s="146"/>
       <c r="G79" s="147"/>
       <c r="H79" s="148"/>
-      <c r="I79" s="167" t="s">
+      <c r="I79" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="J79" s="164"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" s="8"/>
       <c r="F80" s="146"/>
       <c r="G80" s="147"/>
       <c r="H80" s="148"/>
-      <c r="I80" s="166" t="s">
+      <c r="I80" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="J80" s="164"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" s="8"/>
       <c r="F81" s="146"/>
       <c r="G81" s="147"/>
       <c r="H81" s="148"/>
-      <c r="I81" s="207" t="s">
+      <c r="I81" s="190" t="s">
         <v>111</v>
       </c>
-      <c r="J81" s="164"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" s="8"/>
       <c r="F82" s="149"/>
       <c r="G82" s="150"/>
       <c r="H82" s="148"/>
-      <c r="I82" s="208" t="s">
+      <c r="I82" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="J82" s="164"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" s="8"/>
@@ -5565,7 +5395,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
-      <c r="J83" s="164"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" s="8"/>
@@ -5573,9 +5403,9 @@
         <v>114</v>
       </c>
       <c r="G84" s="151"/>
-      <c r="H84" s="152"/>
-      <c r="I84" s="168"/>
-      <c r="J84" s="164"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="162"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" s="8"/>
@@ -5583,28 +5413,28 @@
         <v>115</v>
       </c>
       <c r="G85" s="151"/>
-      <c r="H85" s="152"/>
-      <c r="I85" s="168"/>
-      <c r="J85" s="164"/>
+      <c r="H85" s="83"/>
+      <c r="I85" s="162"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" s="8"/>
-      <c r="F86" s="153" t="s">
+      <c r="F86" s="9" t="s">
         <v>116</v>
       </c>
       <c r="G86" s="151"/>
-      <c r="H86" s="152"/>
-      <c r="I86" s="168"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="162"/>
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" s="8"/>
-      <c r="F87" s="153" t="s">
+      <c r="F87" s="9" t="s">
         <v>117</v>
       </c>
       <c r="G87" s="151"/>
-      <c r="H87" s="152"/>
-      <c r="I87" s="168"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="162"/>
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="5:10">
@@ -5680,13 +5510,13 @@
       <c r="G97" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H97" s="157" t="s">
+      <c r="H97" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I97" s="171"/>
+      <c r="I97" s="55"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="172" t="s">
+      <c r="L97" s="164" t="s">
         <v>33</v>
       </c>
       <c r="N97" s="1"/>
@@ -5718,7 +5548,7 @@
       <c r="P98" s="9"/>
       <c r="Q98" s="14"/>
       <c r="R98" s="14"/>
-      <c r="S98" s="164"/>
+      <c r="S98" s="10"/>
       <c r="U98" s="8"/>
       <c r="V98" s="9" t="s">
         <v>125</v>
@@ -5726,7 +5556,7 @@
       <c r="W98" s="9"/>
       <c r="X98" s="14"/>
       <c r="Y98" s="14"/>
-      <c r="Z98" s="164"/>
+      <c r="Z98" s="10"/>
     </row>
     <row r="99" spans="5:26">
       <c r="E99" s="8"/>
@@ -5737,228 +5567,227 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
       <c r="J99" s="17"/>
-      <c r="K99" s="173"/>
+      <c r="K99" s="165"/>
       <c r="L99" s="10"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="174"/>
+      <c r="O99" s="166"/>
       <c r="P99" s="151"/>
-      <c r="Q99" s="152"/>
-      <c r="R99" s="168"/>
-      <c r="S99" s="164"/>
+      <c r="Q99" s="83"/>
+      <c r="R99" s="162"/>
+      <c r="S99" s="10"/>
       <c r="U99" s="8"/>
-      <c r="V99" s="174"/>
+      <c r="V99" s="166"/>
       <c r="W99" s="151"/>
-      <c r="X99" s="152"/>
-      <c r="Y99" s="168"/>
-      <c r="Z99" s="164"/>
+      <c r="X99" s="83"/>
+      <c r="Y99" s="162"/>
+      <c r="Z99" s="10"/>
     </row>
     <row r="100" spans="5:26">
       <c r="E100" s="8"/>
       <c r="F100" s="17"/>
-      <c r="H100" s="195"/>
-      <c r="I100" s="209"/>
-      <c r="J100" s="210"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="148"/>
+      <c r="J100" s="148"/>
       <c r="K100" s="17"/>
       <c r="L100" s="10"/>
       <c r="N100" s="8"/>
-      <c r="O100" s="175" t="s">
+      <c r="O100" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="P100" s="176"/>
+      <c r="P100" s="166"/>
       <c r="Q100" s="148"/>
-      <c r="R100" s="166"/>
-      <c r="S100" s="164"/>
+      <c r="R100" s="160"/>
+      <c r="S100" s="10"/>
       <c r="U100" s="8"/>
-      <c r="V100" s="175" t="s">
+      <c r="V100" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="W100" s="176"/>
+      <c r="W100" s="166"/>
       <c r="X100" s="148"/>
-      <c r="Y100" s="166"/>
-      <c r="Z100" s="164"/>
+      <c r="Y100" s="160"/>
+      <c r="Z100" s="10"/>
     </row>
     <row r="101" spans="5:26">
       <c r="E101" s="8"/>
-      <c r="F101" s="196"/>
-      <c r="G101" s="197" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="H101" s="198"/>
-      <c r="I101" s="211"/>
-      <c r="J101" s="212"/>
+      <c r="H101" s="182"/>
+      <c r="I101" s="191"/>
+      <c r="J101" s="192"/>
       <c r="K101" s="17"/>
       <c r="L101" s="10"/>
       <c r="N101" s="8"/>
-      <c r="O101" s="179"/>
+      <c r="O101" s="166"/>
       <c r="P101" s="151"/>
-      <c r="Q101" s="152"/>
-      <c r="R101" s="168"/>
-      <c r="S101" s="164"/>
+      <c r="Q101" s="83"/>
+      <c r="R101" s="162"/>
+      <c r="S101" s="10"/>
       <c r="U101" s="8"/>
-      <c r="V101" s="179"/>
+      <c r="V101" s="166"/>
       <c r="W101" s="151"/>
-      <c r="X101" s="152"/>
-      <c r="Y101" s="168"/>
-      <c r="Z101" s="164"/>
+      <c r="X101" s="83"/>
+      <c r="Y101" s="162"/>
+      <c r="Z101" s="10"/>
     </row>
     <row r="102" spans="5:26">
       <c r="E102" s="8"/>
-      <c r="F102" s="196"/>
-      <c r="G102" s="199" t="s">
+      <c r="F102" s="17"/>
+      <c r="G102" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="H102" s="200"/>
-      <c r="I102" s="213" t="s">
+      <c r="H102" s="184"/>
+      <c r="I102" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="J102" s="214" t="s">
+      <c r="J102" s="193" t="s">
         <v>152</v>
       </c>
       <c r="K102" s="23"/>
       <c r="L102" s="10"/>
-      <c r="M102" s="194"/>
+      <c r="M102" s="74"/>
       <c r="N102" s="8"/>
-      <c r="O102" s="175" t="s">
+      <c r="O102" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="P102" s="176"/>
+      <c r="P102" s="166"/>
       <c r="Q102" s="148"/>
-      <c r="R102" s="166"/>
-      <c r="S102" s="164"/>
+      <c r="R102" s="160"/>
+      <c r="S102" s="10"/>
       <c r="U102" s="8"/>
-      <c r="V102" s="175" t="s">
+      <c r="V102" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="W102" s="176"/>
+      <c r="W102" s="166"/>
       <c r="X102" s="148"/>
-      <c r="Y102" s="166"/>
-      <c r="Z102" s="164"/>
+      <c r="Y102" s="160"/>
+      <c r="Z102" s="10"/>
     </row>
     <row r="103" spans="5:26">
       <c r="E103" s="8"/>
-      <c r="F103" s="196"/>
-      <c r="G103" s="199"/>
-      <c r="H103" s="200"/>
-      <c r="I103" s="182" t="s">
+      <c r="F103" s="17"/>
+      <c r="G103" s="183"/>
+      <c r="H103" s="184"/>
+      <c r="I103" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="J103" s="183" t="s">
+      <c r="J103" s="172" t="s">
         <v>152</v>
       </c>
       <c r="K103" s="17"/>
-      <c r="L103" s="215"/>
-      <c r="M103"/>
+      <c r="L103" s="10"/>
       <c r="N103" s="8"/>
-      <c r="O103" s="184"/>
-      <c r="P103" s="216"/>
-      <c r="Q103" s="230"/>
-      <c r="R103" s="231"/>
-      <c r="S103" s="164"/>
+      <c r="O103" s="166"/>
+      <c r="P103" s="194"/>
+      <c r="Q103" s="205"/>
+      <c r="R103" s="163"/>
+      <c r="S103" s="10"/>
       <c r="U103" s="8"/>
-      <c r="V103" s="184"/>
-      <c r="W103" s="216"/>
-      <c r="X103" s="230"/>
-      <c r="Y103" s="231"/>
-      <c r="Z103" s="164"/>
+      <c r="V103" s="166"/>
+      <c r="W103" s="194"/>
+      <c r="X103" s="205"/>
+      <c r="Y103" s="163"/>
+      <c r="Z103" s="10"/>
     </row>
     <row r="104" spans="5:26">
       <c r="E104" s="8"/>
-      <c r="F104" s="196"/>
-      <c r="G104" s="199"/>
-      <c r="H104" s="200"/>
-      <c r="I104" s="182" t="s">
+      <c r="F104" s="17"/>
+      <c r="G104" s="183"/>
+      <c r="H104" s="184"/>
+      <c r="I104" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="J104" s="183" t="s">
+      <c r="J104" s="172" t="s">
         <v>152</v>
       </c>
       <c r="K104" s="17"/>
-      <c r="L104" s="215"/>
+      <c r="L104" s="10"/>
       <c r="N104" s="8"/>
       <c r="O104" s="9"/>
-      <c r="P104" s="217"/>
-      <c r="Q104" s="232"/>
-      <c r="R104" s="233"/>
-      <c r="S104" s="164"/>
+      <c r="P104" s="195"/>
+      <c r="Q104" s="206"/>
+      <c r="R104" s="207"/>
+      <c r="S104" s="10"/>
       <c r="U104" s="8"/>
       <c r="V104" s="9"/>
-      <c r="W104" s="217"/>
-      <c r="X104" s="232"/>
-      <c r="Y104" s="233"/>
-      <c r="Z104" s="164"/>
+      <c r="W104" s="195"/>
+      <c r="X104" s="206"/>
+      <c r="Y104" s="207"/>
+      <c r="Z104" s="10"/>
     </row>
     <row r="105" spans="5:26">
       <c r="E105" s="8"/>
-      <c r="F105" s="196"/>
-      <c r="G105" s="199"/>
-      <c r="H105" s="200"/>
-      <c r="I105" s="182" t="s">
+      <c r="F105" s="17"/>
+      <c r="G105" s="183"/>
+      <c r="H105" s="184"/>
+      <c r="I105" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="J105" s="183" t="s">
+      <c r="J105" s="172" t="s">
         <v>152</v>
       </c>
       <c r="K105" s="17"/>
-      <c r="L105" s="215"/>
+      <c r="L105" s="10"/>
       <c r="N105" s="8"/>
       <c r="O105" s="9"/>
-      <c r="P105" s="217"/>
-      <c r="Q105" s="232"/>
-      <c r="R105" s="233"/>
-      <c r="S105" s="164"/>
+      <c r="P105" s="195"/>
+      <c r="Q105" s="206"/>
+      <c r="R105" s="207"/>
+      <c r="S105" s="10"/>
       <c r="U105" s="8"/>
       <c r="V105" s="9"/>
-      <c r="W105" s="217"/>
-      <c r="X105" s="232"/>
-      <c r="Y105" s="233"/>
-      <c r="Z105" s="164"/>
+      <c r="W105" s="195"/>
+      <c r="X105" s="206"/>
+      <c r="Y105" s="207"/>
+      <c r="Z105" s="10"/>
     </row>
     <row r="106" spans="5:26">
       <c r="E106" s="8"/>
-      <c r="F106" s="196"/>
-      <c r="G106" s="201"/>
-      <c r="H106" s="202"/>
-      <c r="I106" s="182" t="s">
+      <c r="F106" s="17"/>
+      <c r="G106" s="185"/>
+      <c r="H106" s="186"/>
+      <c r="I106" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="J106" s="183" t="s">
+      <c r="J106" s="172" t="s">
         <v>152</v>
       </c>
       <c r="K106" s="17"/>
-      <c r="L106" s="215"/>
+      <c r="L106" s="10"/>
       <c r="N106" s="8"/>
       <c r="O106" s="9"/>
-      <c r="P106" s="217"/>
-      <c r="Q106" s="232"/>
-      <c r="R106" s="233"/>
-      <c r="S106" s="164"/>
+      <c r="P106" s="195"/>
+      <c r="Q106" s="206"/>
+      <c r="R106" s="207"/>
+      <c r="S106" s="10"/>
       <c r="U106" s="8"/>
       <c r="V106" s="9"/>
-      <c r="W106" s="217"/>
-      <c r="X106" s="232"/>
-      <c r="Y106" s="233"/>
-      <c r="Z106" s="164"/>
+      <c r="W106" s="195"/>
+      <c r="X106" s="206"/>
+      <c r="Y106" s="207"/>
+      <c r="Z106" s="10"/>
     </row>
     <row r="107" spans="5:26">
       <c r="E107" s="8"/>
-      <c r="F107" s="196"/>
+      <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
-      <c r="L107" s="215"/>
+      <c r="L107" s="10"/>
       <c r="N107" s="8"/>
-      <c r="O107" s="153"/>
-      <c r="P107" s="218"/>
-      <c r="Q107" s="234"/>
-      <c r="R107" s="235"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="196"/>
+      <c r="Q107" s="208"/>
+      <c r="R107" s="209"/>
       <c r="S107" s="10"/>
       <c r="U107" s="8"/>
-      <c r="V107" s="153"/>
-      <c r="W107" s="218"/>
-      <c r="X107" s="234"/>
-      <c r="Y107" s="235"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="196"/>
+      <c r="X107" s="208"/>
+      <c r="Y107" s="209"/>
       <c r="Z107" s="10"/>
     </row>
     <row r="108" spans="5:26">
@@ -5971,16 +5800,16 @@
       <c r="K108" s="17"/>
       <c r="L108" s="10"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="153"/>
-      <c r="P108" s="206"/>
-      <c r="Q108" s="227"/>
-      <c r="R108" s="228"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
       <c r="S108" s="10"/>
       <c r="U108" s="8"/>
-      <c r="V108" s="153"/>
-      <c r="W108" s="206"/>
-      <c r="X108" s="227"/>
-      <c r="Y108" s="228"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
       <c r="Z108" s="10"/>
     </row>
     <row r="109" spans="5:26">
@@ -5997,7 +5826,7 @@
       <c r="P109" s="31"/>
       <c r="Q109" s="31"/>
       <c r="R109" s="31"/>
-      <c r="S109" s="229" t="s">
+      <c r="S109" s="204" t="s">
         <v>141</v>
       </c>
       <c r="U109" s="4"/>
@@ -6005,7 +5834,7 @@
       <c r="W109" s="31"/>
       <c r="X109" s="31"/>
       <c r="Y109" s="31"/>
-      <c r="Z109" s="229" t="s">
+      <c r="Z109" s="204" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6013,39 +5842,39 @@
       <c r="E110" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="F110" s="194"/>
-      <c r="G110" s="194"/>
-      <c r="H110" s="194"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="F111" s="194"/>
-      <c r="G111" s="194"/>
-      <c r="H111" s="194"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
     </row>
     <row r="112" spans="5:19">
       <c r="E112" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="F112" s="194"/>
-      <c r="G112" s="194"/>
-      <c r="H112" s="194"/>
-      <c r="O112" s="219"/>
-      <c r="P112" s="219"/>
-      <c r="Q112" s="236"/>
-      <c r="R112" s="236"/>
-      <c r="S112" s="219"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="O112" s="197"/>
+      <c r="P112" s="197"/>
+      <c r="Q112" s="210"/>
+      <c r="R112" s="210"/>
+      <c r="S112" s="197"/>
     </row>
     <row r="113" spans="20:20">
-      <c r="T113" s="208"/>
+      <c r="T113" s="161"/>
     </row>
     <row r="114" spans="20:20">
-      <c r="T114" s="208"/>
+      <c r="T114" s="161"/>
     </row>
     <row r="115" spans="20:20">
-      <c r="T115" s="208"/>
+      <c r="T115" s="161"/>
     </row>
     <row r="116" spans="5:19">
       <c r="E116" s="17"/>
@@ -6093,13 +5922,13 @@
       <c r="G118" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H118" s="157" t="s">
+      <c r="H118" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I118" s="171"/>
+      <c r="I118" s="55"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="172" t="s">
+      <c r="L118" s="164" t="s">
         <v>33</v>
       </c>
       <c r="N118" s="1"/>
@@ -6125,7 +5954,7 @@
       <c r="P119" s="9"/>
       <c r="Q119" s="14"/>
       <c r="R119" s="14"/>
-      <c r="S119" s="164"/>
+      <c r="S119" s="10"/>
     </row>
     <row r="120" spans="5:19">
       <c r="E120" s="8"/>
@@ -6136,163 +5965,161 @@
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
-      <c r="K120" s="173"/>
+      <c r="K120" s="165"/>
       <c r="L120" s="10"/>
       <c r="N120" s="8"/>
-      <c r="O120" s="174"/>
+      <c r="O120" s="166"/>
       <c r="P120" s="151"/>
-      <c r="Q120" s="152"/>
-      <c r="R120" s="168"/>
-      <c r="S120" s="164"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="162"/>
+      <c r="S120" s="10"/>
     </row>
     <row r="121" spans="5:19">
       <c r="E121" s="8"/>
       <c r="F121" s="17"/>
-      <c r="G121" s="195"/>
-      <c r="H121" s="195"/>
-      <c r="I121" s="209"/>
-      <c r="J121" s="210"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="148"/>
+      <c r="J121" s="148"/>
       <c r="K121" s="17"/>
       <c r="L121" s="10"/>
-      <c r="M121"/>
       <c r="N121" s="8"/>
-      <c r="O121" s="175" t="s">
+      <c r="O121" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="P121" s="176"/>
+      <c r="P121" s="166"/>
       <c r="Q121" s="148"/>
-      <c r="R121" s="166"/>
-      <c r="S121" s="164"/>
+      <c r="R121" s="160"/>
+      <c r="S121" s="10"/>
     </row>
     <row r="122" spans="5:19">
       <c r="E122" s="8"/>
-      <c r="F122" s="196"/>
-      <c r="G122" s="203" t="s">
+      <c r="F122" s="17"/>
+      <c r="G122" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="H122" s="203"/>
-      <c r="I122" s="203" t="s">
+      <c r="H122" s="187"/>
+      <c r="I122" s="187" t="s">
         <v>126</v>
       </c>
-      <c r="J122" s="220"/>
+      <c r="J122" s="187"/>
       <c r="K122" s="17"/>
       <c r="L122" s="10"/>
-      <c r="M122"/>
       <c r="N122" s="8"/>
-      <c r="O122" s="179"/>
+      <c r="O122" s="166"/>
       <c r="P122" s="151"/>
-      <c r="Q122" s="152"/>
-      <c r="R122" s="168"/>
-      <c r="S122" s="164"/>
+      <c r="Q122" s="83"/>
+      <c r="R122" s="162"/>
+      <c r="S122" s="10"/>
     </row>
     <row r="123" spans="5:19">
       <c r="E123" s="8"/>
-      <c r="F123" s="196"/>
-      <c r="G123" s="199" t="s">
+      <c r="F123" s="17"/>
+      <c r="G123" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="H123" s="200"/>
-      <c r="I123" s="221" t="s">
+      <c r="H123" s="184"/>
+      <c r="I123" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="J123" s="222"/>
+      <c r="J123" s="199"/>
       <c r="K123" s="23"/>
       <c r="L123" s="10"/>
       <c r="N123" s="8"/>
-      <c r="O123" s="175" t="s">
+      <c r="O123" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="P123" s="176"/>
+      <c r="P123" s="166"/>
       <c r="Q123" s="148"/>
-      <c r="R123" s="166"/>
-      <c r="S123" s="164"/>
+      <c r="R123" s="160"/>
+      <c r="S123" s="10"/>
     </row>
     <row r="124" spans="5:19">
       <c r="E124" s="8"/>
-      <c r="F124" s="196"/>
-      <c r="G124" s="199"/>
-      <c r="H124" s="200"/>
-      <c r="I124" s="223" t="s">
+      <c r="F124" s="17"/>
+      <c r="G124" s="183"/>
+      <c r="H124" s="184"/>
+      <c r="I124" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="J124" s="224"/>
+      <c r="J124" s="201"/>
       <c r="K124" s="17"/>
-      <c r="L124" s="215"/>
+      <c r="L124" s="10"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="184"/>
-      <c r="P124" s="185"/>
-      <c r="Q124" s="190"/>
-      <c r="R124" s="191"/>
-      <c r="S124" s="164"/>
+      <c r="O124" s="166"/>
+      <c r="P124" s="173"/>
+      <c r="Q124" s="178"/>
+      <c r="R124" s="179"/>
+      <c r="S124" s="10"/>
     </row>
     <row r="125" spans="5:19">
       <c r="E125" s="8"/>
-      <c r="F125" s="196"/>
-      <c r="G125" s="199"/>
-      <c r="H125" s="200"/>
-      <c r="I125" s="223" t="s">
+      <c r="F125" s="17"/>
+      <c r="G125" s="183"/>
+      <c r="H125" s="184"/>
+      <c r="I125" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="J125" s="224"/>
+      <c r="J125" s="201"/>
       <c r="K125" s="17"/>
-      <c r="L125" s="215"/>
+      <c r="L125" s="10"/>
       <c r="N125" s="8"/>
       <c r="O125" s="9"/>
-      <c r="P125" s="188"/>
-      <c r="Q125" s="192"/>
-      <c r="R125" s="193"/>
-      <c r="S125" s="164"/>
+      <c r="P125" s="176"/>
+      <c r="Q125" s="73"/>
+      <c r="R125" s="180"/>
+      <c r="S125" s="10"/>
     </row>
     <row r="126" spans="5:19">
       <c r="E126" s="8"/>
-      <c r="F126" s="196"/>
-      <c r="G126" s="199"/>
-      <c r="H126" s="200"/>
-      <c r="I126" s="223" t="s">
+      <c r="F126" s="17"/>
+      <c r="G126" s="183"/>
+      <c r="H126" s="184"/>
+      <c r="I126" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="J126" s="224"/>
+      <c r="J126" s="201"/>
       <c r="K126" s="17"/>
-      <c r="L126" s="215"/>
+      <c r="L126" s="10"/>
       <c r="N126" s="8"/>
       <c r="O126" s="9"/>
-      <c r="P126" s="188"/>
-      <c r="Q126" s="192"/>
-      <c r="R126" s="193"/>
-      <c r="S126" s="164"/>
+      <c r="P126" s="176"/>
+      <c r="Q126" s="73"/>
+      <c r="R126" s="180"/>
+      <c r="S126" s="10"/>
     </row>
     <row r="127" spans="5:19">
       <c r="E127" s="8"/>
-      <c r="F127" s="196"/>
-      <c r="G127" s="201"/>
-      <c r="H127" s="202"/>
-      <c r="I127" s="223" t="s">
+      <c r="F127" s="17"/>
+      <c r="G127" s="185"/>
+      <c r="H127" s="186"/>
+      <c r="I127" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="J127" s="224"/>
+      <c r="J127" s="201"/>
       <c r="K127" s="17"/>
-      <c r="L127" s="215"/>
+      <c r="L127" s="10"/>
       <c r="N127" s="8"/>
       <c r="O127" s="9"/>
-      <c r="P127" s="188"/>
-      <c r="Q127" s="192"/>
-      <c r="R127" s="193"/>
-      <c r="S127" s="164"/>
+      <c r="P127" s="176"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="180"/>
+      <c r="S127" s="10"/>
     </row>
     <row r="128" spans="5:19">
       <c r="E128" s="8"/>
-      <c r="F128" s="196"/>
+      <c r="F128" s="17"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
-      <c r="I128" s="208"/>
+      <c r="I128" s="161"/>
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
-      <c r="L128" s="215"/>
+      <c r="L128" s="10"/>
       <c r="N128" s="8"/>
-      <c r="O128" s="153"/>
-      <c r="P128" s="205"/>
-      <c r="Q128" s="225"/>
-      <c r="R128" s="226"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="189"/>
+      <c r="Q128" s="202"/>
+      <c r="R128" s="203"/>
       <c r="S128" s="10"/>
     </row>
     <row r="129" spans="5:19">
@@ -6305,10 +6132,10 @@
       <c r="K129" s="17"/>
       <c r="L129" s="10"/>
       <c r="N129" s="8"/>
-      <c r="O129" s="153"/>
-      <c r="P129" s="206"/>
-      <c r="Q129" s="227"/>
-      <c r="R129" s="228"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="14"/>
+      <c r="Q129" s="14"/>
+      <c r="R129" s="14"/>
       <c r="S129" s="10"/>
     </row>
     <row r="130" spans="5:19">
@@ -6325,7 +6152,7 @@
       <c r="P130" s="31"/>
       <c r="Q130" s="31"/>
       <c r="R130" s="31"/>
-      <c r="S130" s="229" t="s">
+      <c r="S130" s="204" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6375,13 +6202,13 @@
       <c r="G136" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="H136" s="157" t="s">
+      <c r="H136" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I136" s="171"/>
+      <c r="I136" s="55"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
-      <c r="L136" s="172" t="s">
+      <c r="L136" s="164" t="s">
         <v>33</v>
       </c>
       <c r="N136" s="1"/>
@@ -6407,7 +6234,7 @@
       <c r="P137" s="9"/>
       <c r="Q137" s="14"/>
       <c r="R137" s="14"/>
-      <c r="S137" s="164"/>
+      <c r="S137" s="10"/>
     </row>
     <row r="138" spans="5:19">
       <c r="E138" s="8"/>
@@ -6418,171 +6245,171 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
-      <c r="K138" s="173"/>
+      <c r="K138" s="165"/>
       <c r="L138" s="10"/>
       <c r="N138" s="8"/>
-      <c r="O138" s="174"/>
+      <c r="O138" s="166"/>
       <c r="P138" s="151"/>
-      <c r="Q138" s="152"/>
-      <c r="R138" s="168"/>
-      <c r="S138" s="164"/>
+      <c r="Q138" s="83"/>
+      <c r="R138" s="162"/>
+      <c r="S138" s="10"/>
     </row>
     <row r="139" spans="5:19">
       <c r="E139" s="8"/>
       <c r="F139" s="17"/>
-      <c r="G139" s="195"/>
-      <c r="H139" s="195"/>
-      <c r="I139" s="209"/>
-      <c r="J139" s="210"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="148"/>
+      <c r="J139" s="148"/>
       <c r="K139" s="17"/>
       <c r="L139" s="10"/>
       <c r="N139" s="8"/>
-      <c r="O139" s="175" t="s">
+      <c r="O139" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="P139" s="176"/>
+      <c r="P139" s="166"/>
       <c r="Q139" s="148"/>
-      <c r="R139" s="166"/>
-      <c r="S139" s="164"/>
+      <c r="R139" s="160"/>
+      <c r="S139" s="10"/>
     </row>
     <row r="140" spans="5:19">
       <c r="E140" s="8"/>
-      <c r="F140" s="203" t="s">
+      <c r="F140" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="G140" s="197"/>
-      <c r="H140" s="197" t="s">
+      <c r="G140" s="181"/>
+      <c r="H140" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="I140" s="247"/>
-      <c r="J140" s="248" t="s">
+      <c r="I140" s="218"/>
+      <c r="J140" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="K140" s="249"/>
+      <c r="K140" s="220"/>
       <c r="L140" s="10"/>
       <c r="N140" s="8"/>
-      <c r="O140" s="179"/>
+      <c r="O140" s="166"/>
       <c r="P140" s="151"/>
-      <c r="Q140" s="152"/>
-      <c r="R140" s="168"/>
-      <c r="S140" s="164"/>
+      <c r="Q140" s="83"/>
+      <c r="R140" s="162"/>
+      <c r="S140" s="10"/>
     </row>
     <row r="141" spans="5:19">
       <c r="E141" s="8"/>
-      <c r="F141" s="199" t="s">
+      <c r="F141" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="G141" s="237"/>
-      <c r="H141" s="238" t="s">
+      <c r="G141" s="211"/>
+      <c r="H141" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="I141" s="238"/>
-      <c r="J141" s="250" t="s">
+      <c r="I141" s="212"/>
+      <c r="J141" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="K141" s="250"/>
+      <c r="K141" s="221"/>
       <c r="L141" s="87" t="s">
         <v>5</v>
       </c>
       <c r="N141" s="8"/>
-      <c r="O141" s="175" t="s">
+      <c r="O141" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="P141" s="176"/>
+      <c r="P141" s="166"/>
       <c r="Q141" s="148"/>
-      <c r="R141" s="166"/>
-      <c r="S141" s="164"/>
+      <c r="R141" s="160"/>
+      <c r="S141" s="10"/>
     </row>
     <row r="142" spans="5:19">
       <c r="E142" s="8"/>
-      <c r="F142" s="199"/>
-      <c r="G142" s="237"/>
-      <c r="H142" s="239" t="s">
+      <c r="F142" s="183"/>
+      <c r="G142" s="211"/>
+      <c r="H142" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="I142" s="251"/>
-      <c r="J142" s="250" t="s">
+      <c r="I142" s="222"/>
+      <c r="J142" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="K142" s="250"/>
-      <c r="L142" s="252" t="s">
+      <c r="K142" s="221"/>
+      <c r="L142" s="87" t="s">
         <v>5</v>
       </c>
       <c r="N142" s="8"/>
-      <c r="O142" s="184"/>
-      <c r="P142" s="185"/>
-      <c r="Q142" s="190"/>
-      <c r="R142" s="191"/>
-      <c r="S142" s="164"/>
+      <c r="O142" s="166"/>
+      <c r="P142" s="173"/>
+      <c r="Q142" s="178"/>
+      <c r="R142" s="179"/>
+      <c r="S142" s="10"/>
     </row>
     <row r="143" spans="5:19">
       <c r="E143" s="8"/>
-      <c r="F143" s="201"/>
-      <c r="G143" s="240"/>
-      <c r="H143" s="238" t="s">
+      <c r="F143" s="185"/>
+      <c r="G143" s="214"/>
+      <c r="H143" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="I143" s="238"/>
-      <c r="J143" s="238" t="s">
+      <c r="I143" s="212"/>
+      <c r="J143" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="K143" s="253"/>
-      <c r="L143" s="252" t="s">
+      <c r="K143" s="212"/>
+      <c r="L143" s="87" t="s">
         <v>5</v>
       </c>
       <c r="N143" s="8"/>
       <c r="O143" s="9"/>
-      <c r="P143" s="188"/>
-      <c r="Q143" s="192"/>
-      <c r="R143" s="193"/>
-      <c r="S143" s="164"/>
+      <c r="P143" s="176"/>
+      <c r="Q143" s="73"/>
+      <c r="R143" s="180"/>
+      <c r="S143" s="10"/>
     </row>
     <row r="144" spans="5:19">
       <c r="E144" s="8"/>
-      <c r="F144" s="241"/>
-      <c r="G144" s="242"/>
-      <c r="H144" s="243"/>
-      <c r="I144" s="243"/>
-      <c r="J144" s="246"/>
-      <c r="K144" s="254"/>
-      <c r="L144" s="215"/>
+      <c r="F144" s="215"/>
+      <c r="G144" s="215"/>
+      <c r="H144" s="216"/>
+      <c r="I144" s="216"/>
+      <c r="J144" s="217"/>
+      <c r="K144" s="217"/>
+      <c r="L144" s="10"/>
       <c r="N144" s="8"/>
       <c r="O144" s="9"/>
-      <c r="P144" s="188"/>
-      <c r="Q144" s="192"/>
-      <c r="R144" s="193"/>
-      <c r="S144" s="164"/>
+      <c r="P144" s="176"/>
+      <c r="Q144" s="73"/>
+      <c r="R144" s="180"/>
+      <c r="S144" s="10"/>
     </row>
     <row r="145" spans="5:19">
       <c r="E145" s="8"/>
-      <c r="F145" s="244"/>
-      <c r="G145" s="245"/>
-      <c r="H145" s="246"/>
-      <c r="I145" s="246"/>
-      <c r="J145" s="246"/>
-      <c r="K145" s="254"/>
-      <c r="L145" s="215"/>
+      <c r="F145" s="215"/>
+      <c r="G145" s="215"/>
+      <c r="H145" s="217"/>
+      <c r="I145" s="217"/>
+      <c r="J145" s="217"/>
+      <c r="K145" s="217"/>
+      <c r="L145" s="10"/>
       <c r="N145" s="8"/>
       <c r="O145" s="9"/>
-      <c r="P145" s="188"/>
-      <c r="Q145" s="192"/>
-      <c r="R145" s="193"/>
-      <c r="S145" s="164"/>
+      <c r="P145" s="176"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="180"/>
+      <c r="S145" s="10"/>
     </row>
     <row r="146" spans="5:19">
       <c r="E146" s="8"/>
-      <c r="F146" s="196"/>
+      <c r="F146" s="17"/>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
-      <c r="I146" s="208"/>
+      <c r="I146" s="161"/>
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
-      <c r="L146" s="215"/>
+      <c r="L146" s="10"/>
       <c r="N146" s="8"/>
-      <c r="O146" s="153"/>
-      <c r="P146" s="205"/>
-      <c r="Q146" s="225"/>
-      <c r="R146" s="226"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="189"/>
+      <c r="Q146" s="202"/>
+      <c r="R146" s="203"/>
       <c r="S146" s="10"/>
     </row>
     <row r="147" spans="5:19">
@@ -6595,10 +6422,10 @@
       <c r="K147" s="17"/>
       <c r="L147" s="10"/>
       <c r="N147" s="8"/>
-      <c r="O147" s="153"/>
-      <c r="P147" s="206"/>
-      <c r="Q147" s="227"/>
-      <c r="R147" s="228"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="14"/>
+      <c r="Q147" s="14"/>
+      <c r="R147" s="14"/>
       <c r="S147" s="10"/>
     </row>
     <row r="148" spans="5:19">
@@ -6615,7 +6442,7 @@
       <c r="P148" s="31"/>
       <c r="Q148" s="31"/>
       <c r="R148" s="31"/>
-      <c r="S148" s="229" t="s">
+      <c r="S148" s="204" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6729,7 +6556,7 @@
   <sheetPr/>
   <dimension ref="B5:Y123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -9593,8 +9420,8 @@
   <sheetPr/>
   <dimension ref="B5:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10865,4 +10692,51 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>